--- a/biology/Botanique/Fèves_au_lard/Fèves_au_lard.xlsx
+++ b/biology/Botanique/Fèves_au_lard/Fèves_au_lard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A8ves_au_lard</t>
+          <t>Fèves_au_lard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fèves au lard, bines (de l'anglais bean) ou haricots au lard[1], est un plat québécois de la cuisine traditionnelle paysanne des pionniers, trappeurs, « coureurs des bois », « voyageurs », faite de haricots (et non de fèves au sens européen) et de morceaux de lard, assaisonnés généralement avec de la mélasse ou du sirop d'érable et à cuisson lente au four. De nos jours, elles sont tout particulièrement mangées au déjeuner (équivalent du petit déjeuner en France) et dans les cabanes à sucre du Québec.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fèves au lard, bines (de l'anglais bean) ou haricots au lard, est un plat québécois de la cuisine traditionnelle paysanne des pionniers, trappeurs, « coureurs des bois », « voyageurs », faite de haricots (et non de fèves au sens européen) et de morceaux de lard, assaisonnés généralement avec de la mélasse ou du sirop d'érable et à cuisson lente au four. De nos jours, elles sont tout particulièrement mangées au déjeuner (équivalent du petit déjeuner en France) et dans les cabanes à sucre du Québec.
 Plusieurs établissements nommés « bineries » sont réputées pour faire des fèves au lard leur spécialité. L'un des rares restaurants portant encore cette appellation nom est La Binerie Mont-Royal, à Montréal. 
-Ce plat appartient au cycle bostonnais de l'histoire de la cuisine québécoise, c'est-à-dire que le plat dans sa forme actuelle est issu du contact avec la Nouvelle-Angleterre du début du XIXe siècle[2], plus précisément des Boston baked beans (en). On utilise dans la préparation un haricot rond blanc sec de petite taille, originaire de la Nouvelle-Angleterre (navy bean en anglais), qui a fini par remplacer la gourgane dans la cuisine québécoise commune.
+Ce plat appartient au cycle bostonnais de l'histoire de la cuisine québécoise, c'est-à-dire que le plat dans sa forme actuelle est issu du contact avec la Nouvelle-Angleterre du début du XIXe siècle, plus précisément des Boston baked beans (en). On utilise dans la préparation un haricot rond blanc sec de petite taille, originaire de la Nouvelle-Angleterre (navy bean en anglais), qui a fini par remplacer la gourgane dans la cuisine québécoise commune.
 			Plat de fèves au lard
 			Déjeuner traditionnel servi avec un gobelet de fèves au lard
 			Binerie Mont-Royal
